--- a/new/graphics/pbrt4ed/pbrt-v4/class-hierarchy.xlsx
+++ b/new/graphics/pbrt4ed/pbrt-v4/class-hierarchy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\books\new\graphics\pbrt4ed\pbrt-v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17E2A6B-667B-42E8-BA39-2ADCDB0353AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC1C6FA-F47C-4BEA-B82E-7D66445E3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{82C90499-432E-4C63-BF9E-EE7C7C033765}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>继承类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spectrum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,26 +80,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>camera.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shape.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Primitive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>primitive.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sampler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +277,190 @@
   </si>
   <si>
     <t>负责执行光线追踪的核心算法，将场景的几何形状、光源、材质结合在一起计算最终的图像，控制光线传播的方式，决定如何累积和计算光线对图像的贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Film</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>film.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGBFilm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBufferFilm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpectralFilm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilmBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机的通用方法的实现在此，具体的相机实现皆继承它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectiveCamera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrthographicCamera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层继承类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二层继承类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerspectiveCamera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cameras.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base/camera.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用投影方法实现从三维空间映射到二维平面的一类相机的总称，定义了投影相机的公共实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SphericalCamera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球形相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透视投影相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正交投影相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用成员变量和方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base/film.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示现实中胶片成像过程的抽象，用于模拟胶片感光元件对光，色彩的处理过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用RGB颜色表示图像的色彩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不单记录RGB颜色，还包含了可视交点的几何特征信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录在某个特定波段的光谱图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shapes.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base/shape.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cylinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BilinearPatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆盘体实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆柱体实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球体实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu/primitive.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeometricPrimitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimplePrimitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransformedPrimitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AnimatedPrimitive </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和图元几何形状相关的各种属性值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +493,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -348,13 +516,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +574,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,272 +982,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA417CA0-79F1-4D57-8BF0-F6D926E3E9BA}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="18" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="21" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="22" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="23" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="24" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="25" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="26" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="G27" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="I27" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="32">
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new/graphics/pbrt4ed/pbrt-v4/class-hierarchy.xlsx
+++ b/new/graphics/pbrt4ed/pbrt-v4/class-hierarchy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\books\new\graphics\pbrt4ed\pbrt-v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC1C6FA-F47C-4BEA-B82E-7D66445E3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931FAF4F-4B8D-4DEF-A599-A185632694CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{82C90499-432E-4C63-BF9E-EE7C7C033765}"/>
+    <workbookView xWindow="7212" yWindow="2856" windowWidth="23040" windowHeight="13560" xr2:uid="{82C90499-432E-4C63-BF9E-EE7C7C033765}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,50 @@
   </si>
   <si>
     <t>和图元几何形状相关的各种属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoatedDiffuseMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoatedConductorMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConductorMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffuseMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DielectricMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MixMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffuseTransmissionMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HairMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsurfaceMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThinDielectricMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeasuredMaterial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,97 +620,79 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,23 +1008,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA417CA0-79F1-4D57-8BF0-F6D926E3E9BA}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
@@ -1006,29 +1032,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1064,7 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1047,16 +1073,16 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1079,87 +1105,87 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="6" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="21"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1167,114 +1193,110 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="27"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="29" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="25" t="s">
         <v>101</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1282,39 +1304,39 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="6" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="6" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="6" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1342,204 +1364,303 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C31" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D31" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="32" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="33" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="34" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="35" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="36" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D36" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B37" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C37" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D37" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E37" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F37" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G37" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I37" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="2" t="s">
+    <row r="38" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="3" t="s">
+      <c r="I38" s="16"/>
+      <c r="J38" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="2" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="3" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
+  <mergeCells count="36">
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="D20:D30"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -1554,6 +1675,24 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new/graphics/pbrt4ed/pbrt-v4/class-hierarchy.xlsx
+++ b/new/graphics/pbrt4ed/pbrt-v4/class-hierarchy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\books\new\graphics\pbrt4ed\pbrt-v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931FAF4F-4B8D-4DEF-A599-A185632694CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38435FF4-25F7-466C-9707-5820A32F2B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7212" yWindow="2856" windowWidth="23040" windowHeight="13560" xr2:uid="{82C90499-432E-4C63-BF9E-EE7C7C033765}"/>
   </bookViews>
@@ -603,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,6 +652,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -667,6 +688,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,24 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,49 +1016,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA417CA0-79F1-4D57-8BF0-F6D926E3E9BA}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1102,7 +1108,7 @@
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1110,34 +1116,34 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="21" t="s">
         <v>77</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1151,16 +1157,16 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="2" t="s">
         <v>78</v>
       </c>
@@ -1172,16 +1178,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="2" t="s">
         <v>71</v>
       </c>
@@ -1193,22 +1199,22 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="19" t="s">
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1218,85 +1224,85 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="29" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="19" t="s">
         <v>101</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1304,36 +1310,36 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -1343,7 +1349,7 @@
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1357,7 +1363,7 @@
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1371,7 +1377,7 @@
       <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1379,16 +1385,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1398,10 +1404,10 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -1409,10 +1415,10 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="2" t="s">
         <v>109</v>
       </c>
@@ -1420,10 +1426,10 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="2" t="s">
         <v>111</v>
       </c>
@@ -1431,10 +1437,10 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="2" t="s">
         <v>110</v>
       </c>
@@ -1442,10 +1448,10 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="2" t="s">
         <v>113</v>
       </c>
@@ -1453,10 +1459,10 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="2" t="s">
         <v>114</v>
       </c>
@@ -1464,10 +1470,10 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="2" t="s">
         <v>117</v>
       </c>
@@ -1475,10 +1481,10 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="2" t="s">
         <v>115</v>
       </c>
@@ -1486,10 +1492,10 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="2" t="s">
         <v>116</v>
       </c>
@@ -1497,10 +1503,10 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="2" t="s">
         <v>112</v>
       </c>
@@ -1508,16 +1514,16 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1528,7 +1534,7 @@
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1542,7 +1548,7 @@
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1556,7 +1562,7 @@
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -1570,7 +1576,7 @@
       <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -1584,7 +1590,7 @@
       <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="11" t="s">
@@ -1592,76 +1598,87 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="28" t="s">
         <v>82</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="22" t="s">
         <v>63</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="24"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="16"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="24"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="17"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="3" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="C20:C30"/>
-    <mergeCell ref="D20:D30"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -1675,24 +1692,13 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="D20:D30"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
